--- a/Data/develop_timetable.xlsx
+++ b/Data/develop_timetable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\working_games\girls_frontline\github\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\working_games\girls_frontline\正式版\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="13995" windowHeight="10440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="what" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="102">
   <si>
     <t>枪名</t>
   </si>
@@ -27,25 +27,37 @@
     <t>建造时间</t>
   </si>
   <si>
-    <t>M1873</t>
+    <t>稀有度</t>
+  </si>
+  <si>
+    <t>柯尔特左轮</t>
+  </si>
+  <si>
+    <t>★★★★</t>
   </si>
   <si>
     <t>M1911</t>
   </si>
   <si>
+    <t>★★</t>
+  </si>
+  <si>
     <t>M9</t>
   </si>
   <si>
-    <t>M1895</t>
-  </si>
-  <si>
-    <t>TT33</t>
-  </si>
-  <si>
-    <t>APS</t>
-  </si>
-  <si>
-    <t>PM</t>
+    <t>★★★</t>
+  </si>
+  <si>
+    <t>纳甘左轮</t>
+  </si>
+  <si>
+    <t>托卡列夫</t>
+  </si>
+  <si>
+    <t>斯捷奇金</t>
+  </si>
+  <si>
+    <t>马卡洛夫</t>
   </si>
   <si>
     <t>P38</t>
@@ -60,34 +72,40 @@
     <t>C96</t>
   </si>
   <si>
-    <t>92type</t>
-  </si>
-  <si>
-    <t>Glock17</t>
-  </si>
-  <si>
-    <t>M1928A1</t>
+    <t>92式</t>
+  </si>
+  <si>
+    <t>阿斯特拉左轮</t>
+  </si>
+  <si>
+    <t>格洛克17</t>
+  </si>
+  <si>
+    <t>汤姆森</t>
+  </si>
+  <si>
+    <t>★★★★★</t>
   </si>
   <si>
     <t>M3</t>
   </si>
   <si>
-    <t>MAC10</t>
-  </si>
-  <si>
-    <t>FMG9</t>
+    <t>MAC-10</t>
+  </si>
+  <si>
+    <t>FMG-9</t>
   </si>
   <si>
     <t>Vector</t>
   </si>
   <si>
-    <t>PPsh41</t>
-  </si>
-  <si>
-    <t>PPS43</t>
-  </si>
-  <si>
-    <t>PP2000</t>
+    <t>PPSh-41</t>
+  </si>
+  <si>
+    <t>PPS-43</t>
+  </si>
+  <si>
+    <t>PP-2000</t>
   </si>
   <si>
     <t>MP40</t>
@@ -96,25 +114,25 @@
     <t>MP5</t>
   </si>
   <si>
-    <t>VZ61</t>
-  </si>
-  <si>
-    <t>StenMK2</t>
-  </si>
-  <si>
-    <t>MAB38</t>
-  </si>
-  <si>
-    <t>MicroUZI</t>
+    <t>蝎式</t>
+  </si>
+  <si>
+    <t>司登MkⅡ</t>
+  </si>
+  <si>
+    <t>伯莱塔38型</t>
+  </si>
+  <si>
+    <t>微型乌兹</t>
   </si>
   <si>
     <t>m45</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M1903</t>
+    <t>M1加兰德</t>
+  </si>
+  <si>
+    <t>春田</t>
   </si>
   <si>
     <t>M14</t>
@@ -123,22 +141,22 @@
     <t>M21</t>
   </si>
   <si>
-    <t>M1891</t>
-  </si>
-  <si>
-    <t>SVT38</t>
-  </si>
-  <si>
-    <t>SKS</t>
+    <t>莫辛-纳甘</t>
+  </si>
+  <si>
+    <t>SVT-38</t>
+  </si>
+  <si>
+    <t>西蒙诺夫</t>
   </si>
   <si>
     <t>PTRD</t>
   </si>
   <si>
-    <t>SV98</t>
-  </si>
-  <si>
-    <t>98K</t>
+    <t>SV-98</t>
+  </si>
+  <si>
+    <t>Kar98k</t>
   </si>
   <si>
     <t>G43</t>
@@ -147,16 +165,16 @@
     <t>WA2000</t>
   </si>
   <si>
-    <t>MLEMK1</t>
-  </si>
-  <si>
-    <t>FN49</t>
+    <t>李-恩菲尔德</t>
+  </si>
+  <si>
+    <t>FN-49</t>
   </si>
   <si>
     <t>BM59</t>
   </si>
   <si>
-    <t>NTW20</t>
+    <t>NTW-20</t>
   </si>
   <si>
     <t>M16A1</t>
@@ -165,19 +183,19 @@
     <t>M4A1</t>
   </si>
   <si>
-    <t>M4 SOPMOD II</t>
-  </si>
-  <si>
-    <t>AR15</t>
-  </si>
-  <si>
-    <t>AK47</t>
-  </si>
-  <si>
-    <t>ASVAL</t>
-  </si>
-  <si>
-    <t>STG44</t>
+    <t>M4 SOPMODII</t>
+  </si>
+  <si>
+    <t>ST AR-15</t>
+  </si>
+  <si>
+    <t>AK-47</t>
+  </si>
+  <si>
+    <t>AS Val</t>
+  </si>
+  <si>
+    <t>StG44</t>
   </si>
   <si>
     <t>G41</t>
@@ -192,7 +210,7 @@
     <t>HK416</t>
   </si>
   <si>
-    <t>56-1type</t>
+    <t>56-1式</t>
   </si>
   <si>
     <t>L85A1</t>
@@ -201,28 +219,28 @@
     <t>FAMAS</t>
   </si>
   <si>
-    <t>FNFNC</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>TAR21</t>
-  </si>
-  <si>
-    <t>SIG510</t>
+    <t>FNC</t>
+  </si>
+  <si>
+    <t>加利尔</t>
+  </si>
+  <si>
+    <t>TAR-21</t>
+  </si>
+  <si>
+    <t>SIG-510</t>
   </si>
   <si>
     <t>M1918</t>
   </si>
   <si>
-    <t>M2HB</t>
+    <t xml:space="preserve">M2HB </t>
   </si>
   <si>
     <t>M60</t>
   </si>
   <si>
-    <t>M249SAW</t>
+    <t>M249 SAW</t>
   </si>
   <si>
     <t>M1919A4</t>
@@ -249,28 +267,28 @@
     <t>MG3</t>
   </si>
   <si>
-    <t>BrenMK</t>
-  </si>
-  <si>
-    <t>FNP9</t>
-  </si>
-  <si>
-    <t>MP446</t>
-  </si>
-  <si>
-    <t>SpectreM4</t>
+    <t>布伦</t>
+  </si>
+  <si>
+    <t>FNP-9</t>
+  </si>
+  <si>
+    <t>MP-446</t>
+  </si>
+  <si>
+    <t>Spectre M4</t>
   </si>
   <si>
     <t>IDW</t>
   </si>
   <si>
-    <t>64type</t>
-  </si>
-  <si>
-    <t>88type</t>
-  </si>
-  <si>
-    <t>Grizzly</t>
+    <t>64式</t>
+  </si>
+  <si>
+    <t>汉阳造88式</t>
+  </si>
+  <si>
+    <t>灰熊MkⅤ</t>
   </si>
   <si>
     <t>M950A</t>
@@ -285,16 +303,16 @@
     <t>UMP9</t>
   </si>
   <si>
-    <t>OTs12</t>
-  </si>
-  <si>
-    <t>FNFAL</t>
+    <t>OTs-12</t>
+  </si>
+  <si>
+    <t>FAL</t>
   </si>
   <si>
     <t>F2000</t>
   </si>
   <si>
-    <t>CZ805</t>
+    <t>CZ-805</t>
   </si>
   <si>
     <t>MG5</t>
@@ -303,10 +321,10 @@
     <t>FG42</t>
   </si>
   <si>
-    <t>AAT52</t>
-  </si>
-  <si>
-    <t>NEGEV</t>
+    <t>AAT-52</t>
+  </si>
+  <si>
+    <t>内格夫</t>
   </si>
 </sst>
 </file>
@@ -1227,788 +1245,1075 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>3.4722222222222224E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>1.3888888888888888E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>2.7777777777777776E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>1.3888888888888888E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>3.125E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>3.8194444444444441E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>2.7777777777777776E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>1.3888888888888888E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>1.5277777777777777E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>2.4305555555555556E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>357</v>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>2.7777777777777776E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1">
         <v>3.125E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>0.10416666666666667</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1">
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1">
         <v>9.0277777777777776E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1">
         <v>0.1076388888888889</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1">
         <v>7.6388888888888895E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1">
         <v>9.0277777777777776E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1">
         <v>4.8611111111111112E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1">
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1">
         <v>9.7222222222222224E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1">
         <v>6.9444444444444434E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1">
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1">
         <v>6.9444444444444434E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1">
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>0.18402777777777779</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>0.15277777777777776</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>0.15972222222222224</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>0.17361111111111113</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>0.14583333333333334</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>0.14583333333333334</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>0.1875</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>0.15277777777777776</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1">
         <v>0.19444444444444445</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1">
         <v>0.13194444444444445</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1">
         <v>0.20138888888888887</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1">
         <v>0.20833333333333334</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1">
         <v>0.13194444444444445</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1">
         <v>0.1388888888888889</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1">
         <v>0.19791666666666666</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B47" s="1">
         <v>0.14930555555555555</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1">
         <v>0.14930555555555555</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B49" s="1">
         <v>0.14930555555555555</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1">
         <v>0.14930555555555555</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1">
         <v>0.1388888888888889</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B52" s="1">
         <v>0.14583333333333334</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B53" s="1">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B54" s="1">
         <v>0.17013888888888887</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B55" s="1">
         <v>0.11805555555555557</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B56" s="1">
         <v>0.15277777777777776</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B57" s="1">
         <v>0.16319444444444445</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B58" s="1">
         <v>0.1423611111111111</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B59" s="1">
         <v>0.11805555555555557</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B60" s="1">
         <v>0.14583333333333334</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B61" s="1">
         <v>0.1388888888888889</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B62" s="1">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B63" s="1">
         <v>0.14583333333333334</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B64" s="1">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B65" s="1">
         <v>0.2673611111111111</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B66" s="1">
         <v>0.25694444444444448</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B67" s="1">
         <v>0.25694444444444448</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B68" s="1">
         <v>0.22916666666666666</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B69" s="1">
         <v>0.23611111111111113</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B70" s="1">
         <v>0.21527777777777779</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B71" s="1">
         <v>0.20833333333333334</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B72" s="1">
         <v>0.22916666666666666</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B73" s="1">
         <v>0.27083333333333331</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B74" s="1">
         <v>0.24305555555555555</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B75" s="1">
         <v>0.20833333333333334</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B76" s="1">
         <v>0.27083333333333331</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B77" s="1">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B78" s="1">
         <v>1.7361111111111112E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B79" s="1">
         <v>1.7361111111111112E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B80" s="1">
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B81" s="1">
         <v>4.8611111111111112E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B82" s="1">
         <v>5.9027777777777783E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B83" s="1">
         <v>0.15972222222222224</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B84" s="1">
         <v>4.8611111111111112E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B85" s="1">
         <v>4.5138888888888888E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B86" s="1">
         <v>3.4722222222222224E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B87" s="1">
         <v>3.8194444444444441E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B88" s="1">
         <v>9.375E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B89" s="1">
         <v>0.13194444444444445</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B90" s="1">
         <v>0.15625</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B91" s="1">
         <v>0.11458333333333333</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B92" s="1">
         <v>0.13194444444444445</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B93" s="1">
         <v>0.28125</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B94" s="1">
         <v>0.20138888888888887</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B95" s="1">
         <v>0.20138888888888887</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B96" s="1">
         <v>0.27430555555555552</v>
+      </c>
+      <c r="C96" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/develop_timetable.xlsx
+++ b/Data/develop_timetable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\working_games\girls_frontline\正式版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\working_games\girls_frontline\github\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1269,18 +1269,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>3.4722222222222224E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>1.3888888888888888E-2</v>
@@ -1291,21 +1291,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>2.7777777777777776E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
-        <v>1.3888888888888888E-2</v>
+        <v>1.5277777777777777E-2</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1313,32 +1313,32 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1">
-        <v>3.125E-2</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="B7" s="1">
-        <v>3.8194444444444441E-2</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>2.7777777777777776E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1346,32 +1346,32 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>1.3888888888888888E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
-        <v>1.5277777777777777E-2</v>
+        <v>2.4305555555555556E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>2.0833333333333332E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1379,10 +1379,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>2.0833333333333332E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1390,10 +1390,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>2.4305555555555556E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>2.7777777777777776E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -1423,54 +1423,54 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1">
-        <v>0.10416666666666667</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1">
-        <v>6.25E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>3.8194444444444441E-2</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="B19" s="1">
-        <v>9.0277777777777776E-2</v>
+        <v>3.8194444444444441E-2</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1">
-        <v>0.1076388888888889</v>
+        <v>4.5138888888888888E-2</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -1478,10 +1478,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1">
-        <v>7.6388888888888895E-2</v>
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1489,32 +1489,32 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B22" s="1">
-        <v>9.0277777777777776E-2</v>
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="B23" s="1">
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1">
-        <v>6.25E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -1522,40 +1522,40 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1">
-        <v>9.7222222222222224E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>5.9027777777777783E-2</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1">
-        <v>6.9444444444444434E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
         <v>6.25E-2</v>
@@ -1566,32 +1566,32 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1">
-        <v>6.9444444444444434E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1">
-        <v>5.5555555555555552E-2</v>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1">
-        <v>0.16666666666666666</v>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -1599,21 +1599,21 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1">
-        <v>0.18402777777777779</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1">
-        <v>0.15277777777777776</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -1621,10 +1621,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1">
-        <v>0.15972222222222224</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -1632,43 +1632,43 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B35" s="1">
-        <v>0.17361111111111113</v>
+        <v>9.0277777777777776E-2</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1">
-        <v>0.14583333333333334</v>
+        <v>9.0277777777777776E-2</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="B37" s="1">
-        <v>0.14583333333333334</v>
+        <v>9.375E-2</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1">
-        <v>0.1875</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -1676,21 +1676,21 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B39" s="1">
-        <v>0.15277777777777776</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B40" s="1">
-        <v>0.19444444444444445</v>
+        <v>0.1076388888888889</v>
       </c>
       <c r="C40" t="s">
         <v>21</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1">
-        <v>0.13194444444444445</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -1709,32 +1709,32 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B42" s="1">
-        <v>0.20138888888888887</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B43" s="1">
-        <v>0.20833333333333334</v>
+        <v>0.11458333333333333</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B44" s="1">
-        <v>0.13194444444444445</v>
+        <v>0.11805555555555557</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1742,10 +1742,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B45" s="1">
-        <v>0.1388888888888889</v>
+        <v>0.11805555555555557</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1753,87 +1753,87 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B46" s="1">
-        <v>0.19791666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>0.14930555555555555</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1">
-        <v>0.14930555555555555</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B49" s="1">
-        <v>0.14930555555555555</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="B50" s="1">
-        <v>0.14930555555555555</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>0.1388888888888889</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="1">
-        <v>0.14583333333333334</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B53" s="1">
-        <v>0.125</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
@@ -1841,21 +1841,21 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B54" s="1">
-        <v>0.17013888888888887</v>
+        <v>0.1423611111111111</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B55" s="1">
-        <v>0.11805555555555557</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -1863,32 +1863,32 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B56" s="1">
-        <v>0.15277777777777776</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1">
-        <v>0.16319444444444445</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58" s="1">
-        <v>0.1423611111111111</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
@@ -1896,21 +1896,21 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B59" s="1">
-        <v>0.11805555555555557</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B60" s="1">
-        <v>0.14583333333333334</v>
+        <v>0.14930555555555555</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -1918,32 +1918,32 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B61" s="1">
-        <v>0.1388888888888889</v>
+        <v>0.14930555555555555</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B62" s="1">
-        <v>0.1111111111111111</v>
+        <v>0.14930555555555555</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B63" s="1">
-        <v>0.14583333333333334</v>
+        <v>0.14930555555555555</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -1951,54 +1951,54 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B64" s="1">
-        <v>0.1111111111111111</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B65" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="C65" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B66" s="1">
-        <v>0.25694444444444448</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B67" s="1">
-        <v>0.25694444444444448</v>
+        <v>0.15625</v>
       </c>
       <c r="C67" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B68" s="1">
-        <v>0.22916666666666666</v>
+        <v>0.15972222222222224</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
@@ -2006,10 +2006,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B69" s="1">
-        <v>0.23611111111111113</v>
+        <v>0.15972222222222224</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
@@ -2017,43 +2017,43 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B70" s="1">
-        <v>0.21527777777777779</v>
+        <v>0.16319444444444445</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B71" s="1">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B72" s="1">
-        <v>0.22916666666666666</v>
+        <v>0.17013888888888887</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B73" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.17361111111111113</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
@@ -2061,65 +2061,65 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B74" s="1">
-        <v>0.24305555555555555</v>
+        <v>0.18402777777777779</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B75" s="1">
-        <v>0.20833333333333334</v>
+        <v>0.1875</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B76" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="C76" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B77" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.19791666666666666</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B78" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>0.20138888888888887</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B79" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>0.20138888888888887</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -2127,10 +2127,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B80" s="1">
-        <v>5.5555555555555552E-2</v>
+        <v>0.20138888888888887</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -2138,21 +2138,21 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B81" s="1">
-        <v>4.8611111111111112E-2</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B82" s="1">
-        <v>5.9027777777777783E-2</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -2160,76 +2160,76 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B83" s="1">
-        <v>0.15972222222222224</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B84" s="1">
-        <v>4.8611111111111112E-2</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B85" s="1">
-        <v>4.5138888888888888E-2</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B86" s="1">
-        <v>3.4722222222222224E-2</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="C86" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B87" s="1">
-        <v>3.8194444444444441E-2</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="C87" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B88" s="1">
-        <v>9.375E-2</v>
+        <v>0.23611111111111113</v>
       </c>
       <c r="C88" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B89" s="1">
-        <v>0.13194444444444445</v>
+        <v>0.24305555555555555</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
@@ -2237,82 +2237,85 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B90" s="1">
-        <v>0.15625</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B91" s="1">
-        <v>0.11458333333333333</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B92" s="1">
-        <v>0.13194444444444445</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B93" s="1">
-        <v>0.28125</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B94" s="1">
-        <v>0.20138888888888887</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95" s="1">
-        <v>0.20138888888888887</v>
+        <v>0.27430555555555552</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B96" s="1">
-        <v>0.27430555555555552</v>
+        <v>0.28125</v>
       </c>
       <c r="C96" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C96">
+    <sortCondition ref="B19"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/develop_timetable.xlsx
+++ b/Data/develop_timetable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="10440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="what" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="102">
-  <si>
-    <t>枪名</t>
-  </si>
-  <si>
-    <t>建造时间</t>
-  </si>
-  <si>
-    <t>稀有度</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="105">
   <si>
     <t>柯尔特左轮</t>
   </si>
@@ -303,6 +294,9 @@
     <t>UMP9</t>
   </si>
   <si>
+    <t>UMP45</t>
+  </si>
+  <si>
     <t>OTs-12</t>
   </si>
   <si>
@@ -325,6 +319,21 @@
   </si>
   <si>
     <t>内格夫</t>
+  </si>
+  <si>
+    <t>谢尔久科夫</t>
+  </si>
+  <si>
+    <t>维尔德MkⅡ</t>
+  </si>
+  <si>
+    <t>索米</t>
+  </si>
+  <si>
+    <t>9A-91</t>
+  </si>
+  <si>
+    <t>Mk48</t>
   </si>
 </sst>
 </file>
@@ -1245,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1258,354 +1267,354 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>1.3888888888888888E-2</v>
+        <v>1.5277777777777777E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1">
-        <v>1.5277777777777777E-2</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>2.0833333333333332E-2</v>
+        <v>2.4305555555555556E-2</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="B10" s="1">
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
         <v>3.125E-2</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
         <v>3.125E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1">
         <v>3.8194444444444441E-2</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B19" s="1">
         <v>3.8194444444444441E-2</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1">
-        <v>4.5138888888888888E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B21" s="1">
-        <v>4.8611111111111112E-2</v>
+        <v>4.5138888888888888E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B23" s="1">
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1">
-        <v>5.5555555555555552E-2</v>
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B26" s="1">
-        <v>5.9027777777777783E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B27" s="1">
-        <v>6.25E-2</v>
+        <v>5.9027777777777783E-2</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1">
         <v>6.25E-2</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>6.25E-2</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1">
-        <v>6.9444444444444434E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>7.6388888888888895E-2</v>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -1613,527 +1622,527 @@
         <v>23</v>
       </c>
       <c r="B33" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1">
-        <v>9.0277777777777776E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B36" s="1">
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B37" s="1">
-        <v>9.375E-2</v>
+        <v>9.0277777777777776E-2</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B38" s="1">
-        <v>9.7222222222222224E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="B39" s="1">
-        <v>0.10416666666666667</v>
+        <v>9.375E-2</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B40" s="1">
-        <v>0.1076388888888889</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="B41" s="1">
-        <v>0.1111111111111111</v>
+        <v>0.10069444444444443</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="B42" s="1">
-        <v>0.1111111111111111</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="B43" s="1">
-        <v>0.11458333333333333</v>
+        <v>0.1076388888888889</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B44" s="1">
-        <v>0.11805555555555557</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B45" s="1">
-        <v>0.11805555555555557</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B46" s="1">
-        <v>0.125</v>
+        <v>0.11458333333333333</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B47" s="1">
-        <v>0.13194444444444445</v>
+        <v>0.11805555555555557</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B48" s="1">
-        <v>0.13194444444444445</v>
+        <v>0.11805555555555557</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="B49" s="1">
-        <v>0.13194444444444445</v>
+        <v>0.125</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="B50" s="1">
         <v>0.13194444444444445</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B51" s="1">
-        <v>0.1388888888888889</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="B52" s="1">
-        <v>0.1388888888888889</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="B53" s="1">
-        <v>0.1388888888888889</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B54" s="1">
-        <v>0.1423611111111111</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>0.14583333333333334</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B56" s="1">
-        <v>0.14583333333333334</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1">
-        <v>0.14583333333333334</v>
+        <v>0.1423611111111111</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B58" s="1">
         <v>0.14583333333333334</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B59" s="1">
         <v>0.14583333333333334</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B60" s="1">
-        <v>0.14930555555555555</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="C60" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B61" s="1">
-        <v>0.14930555555555555</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B62" s="1">
-        <v>0.14930555555555555</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="C62" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B63" s="1">
         <v>0.14930555555555555</v>
       </c>
       <c r="C63" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B64" s="1">
-        <v>0.15277777777777776</v>
+        <v>0.14930555555555555</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B65" s="1">
-        <v>0.15277777777777776</v>
+        <v>0.14930555555555555</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B66" s="1">
-        <v>0.15277777777777776</v>
+        <v>0.14930555555555555</v>
       </c>
       <c r="C66" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B67" s="1">
-        <v>0.15625</v>
+        <v>0.14930555555555555</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B68" s="1">
-        <v>0.15972222222222224</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="B69" s="1">
-        <v>0.15972222222222224</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B70" s="1">
-        <v>0.16319444444444445</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="B71" s="1">
-        <v>0.16666666666666666</v>
+        <v>0.15625</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B72" s="1">
-        <v>0.17013888888888887</v>
+        <v>0.15972222222222224</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B73" s="1">
-        <v>0.17361111111111113</v>
+        <v>0.15972222222222224</v>
       </c>
       <c r="C73" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B74" s="1">
-        <v>0.18402777777777779</v>
+        <v>0.16319444444444445</v>
       </c>
       <c r="C74" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B75" s="1">
-        <v>0.1875</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C75" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B76" s="1">
-        <v>0.19444444444444445</v>
+        <v>0.17013888888888887</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B77" s="1">
-        <v>0.19791666666666666</v>
+        <v>0.17361111111111113</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B78" s="1">
-        <v>0.20138888888888887</v>
+        <v>0.18402777777777779</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="B79" s="1">
-        <v>0.20138888888888887</v>
+        <v>0.1875</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="B80" s="1">
-        <v>0.20138888888888887</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -2141,54 +2150,54 @@
         <v>48</v>
       </c>
       <c r="B81" s="1">
-        <v>0.20833333333333334</v>
+        <v>0.19791666666666666</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B82" s="1">
-        <v>0.20833333333333334</v>
+        <v>0.20138888888888887</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B83" s="1">
-        <v>0.20833333333333334</v>
+        <v>0.20138888888888887</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B84" s="1">
-        <v>0.21527777777777779</v>
+        <v>0.20138888888888887</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="B85" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -2196,10 +2205,10 @@
         <v>73</v>
       </c>
       <c r="B86" s="1">
-        <v>0.22916666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -2207,21 +2216,21 @@
         <v>77</v>
       </c>
       <c r="B87" s="1">
-        <v>0.22916666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B88" s="1">
-        <v>0.23611111111111113</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -2229,94 +2238,150 @@
         <v>79</v>
       </c>
       <c r="B89" s="1">
-        <v>0.24305555555555555</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B90" s="1">
-        <v>0.25694444444444448</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B91" s="1">
-        <v>0.25694444444444448</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="C91" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B92" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.23611111111111113</v>
       </c>
       <c r="C92" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B93" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.24305555555555555</v>
       </c>
       <c r="C93" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B94" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="C94" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="B95" s="1">
-        <v>0.27430555555555552</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B96" s="1">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>67</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>75</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>78</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="C100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" s="1">
         <v>0.28125</v>
       </c>
-      <c r="C96" t="s">
-        <v>21</v>
+      <c r="C101" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C96">
-    <sortCondition ref="B19"/>
+  <sortState ref="A1:C101">
+    <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/develop_timetable.xlsx
+++ b/Data/develop_timetable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="what" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="112">
   <si>
     <t>柯尔特左轮</t>
   </si>
@@ -156,6 +156,9 @@
     <t>WA2000</t>
   </si>
   <si>
+    <t>56式半</t>
+  </si>
+  <si>
     <t>李-恩菲尔德</t>
   </si>
   <si>
@@ -285,6 +288,9 @@
     <t>M950A</t>
   </si>
   <si>
+    <t>SPP-1</t>
+  </si>
+  <si>
     <t>Mk23</t>
   </si>
   <si>
@@ -330,16 +336,34 @@
     <t>索米</t>
   </si>
   <si>
+    <t>Z-62</t>
+  </si>
+  <si>
+    <t>PSG-1</t>
+  </si>
+  <si>
     <t>9A-91</t>
   </si>
   <si>
+    <t>OTs-14</t>
+  </si>
+  <si>
+    <t>ARX-160</t>
+  </si>
+  <si>
     <t>Mk48</t>
+  </si>
+  <si>
+    <t>G11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="h&quot;时&quot;mm&quot;分&quot;ss&quot;秒&quot;;@"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -930,7 +954,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1254,15 +1278,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -1311,7 +1335,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1">
         <v>1.7361111111111112E-2</v>
@@ -1322,7 +1346,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1">
         <v>1.7361111111111112E-2</v>
@@ -1366,7 +1390,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B10" s="1">
         <v>2.4305555555555556E-2</v>
@@ -1443,7 +1467,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17" s="1">
         <v>3.4722222222222224E-2</v>
@@ -1476,21 +1500,21 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>3.8194444444444441E-2</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B21" s="1">
-        <v>4.5138888888888888E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -1498,18 +1522,18 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1">
-        <v>4.8611111111111112E-2</v>
+        <v>4.5138888888888888E-2</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
         <v>4.8611111111111112E-2</v>
@@ -1520,29 +1544,29 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B24" s="1">
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="B25" s="1">
-        <v>5.5555555555555552E-2</v>
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1">
         <v>5.5555555555555552E-2</v>
@@ -1553,10 +1577,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" s="1">
-        <v>5.9027777777777783E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1564,10 +1588,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B28" s="1">
-        <v>6.25E-2</v>
+        <v>5.9027777777777783E-2</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1575,7 +1599,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B29" s="1">
         <v>6.25E-2</v>
@@ -1586,7 +1610,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1">
         <v>6.25E-2</v>
@@ -1597,18 +1621,18 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>6.9444444444444434E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1">
         <v>6.9444444444444434E-2</v>
@@ -1619,29 +1643,29 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>7.6388888888888895E-2</v>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B35" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1652,10 +1676,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B36" s="1">
-        <v>9.0277777777777776E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1663,7 +1687,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B37" s="1">
         <v>9.0277777777777776E-2</v>
@@ -1674,18 +1698,18 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B38" s="1">
-        <v>9.375E-2</v>
+        <v>9.0277777777777776E-2</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B39" s="1">
         <v>9.375E-2</v>
@@ -1696,10 +1720,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="B40" s="1">
-        <v>9.7222222222222224E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -1707,32 +1731,32 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="B41" s="1">
-        <v>0.10069444444444443</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="B42" s="1">
-        <v>0.10416666666666667</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="B43" s="1">
-        <v>0.1076388888888889</v>
+        <v>0.10069444444444443</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
@@ -1740,32 +1764,32 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B44" s="1">
-        <v>0.1111111111111111</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B45" s="1">
-        <v>0.1111111111111111</v>
+        <v>0.1076388888888889</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B46" s="1">
-        <v>0.11458333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -1773,10 +1797,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B47" s="1">
-        <v>0.11805555555555557</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -1784,10 +1808,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B48" s="1">
-        <v>0.11805555555555557</v>
+        <v>0.11458333333333333</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -1795,21 +1819,21 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B49" s="1">
-        <v>0.125</v>
+        <v>0.11805555555555557</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B50" s="1">
-        <v>0.13194444444444445</v>
+        <v>0.11805555555555557</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -1817,54 +1841,54 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1">
-        <v>0.13194444444444445</v>
+        <v>0.125</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="B52" s="1">
         <v>0.13194444444444445</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1">
         <v>0.13194444444444445</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B54" s="1">
-        <v>0.1388888888888889</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B55" s="1">
-        <v>0.1388888888888889</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1872,10 +1896,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="B56" s="1">
-        <v>0.1388888888888889</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1883,43 +1907,43 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B57" s="1">
-        <v>0.1423611111111111</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B58" s="1">
-        <v>0.14583333333333334</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C58" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B59" s="1">
-        <v>0.14583333333333334</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B60" s="1">
-        <v>0.14583333333333334</v>
+        <v>0.1423611111111111</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -1927,32 +1951,32 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B61" s="1">
         <v>0.14583333333333334</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B62" s="1">
         <v>0.14583333333333334</v>
       </c>
       <c r="C62" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B63" s="1">
-        <v>0.14930555555555555</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -1960,10 +1984,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>0.14930555555555555</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
@@ -1971,10 +1995,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B65" s="1">
-        <v>0.14930555555555555</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -1982,7 +2006,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B66" s="1">
         <v>0.14930555555555555</v>
@@ -1993,7 +2017,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="B67" s="1">
         <v>0.14930555555555555</v>
@@ -2004,32 +2028,32 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B68" s="1">
-        <v>0.15277777777777776</v>
+        <v>0.14930555555555555</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B69" s="1">
-        <v>0.15277777777777776</v>
+        <v>0.14930555555555555</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="B70" s="1">
-        <v>0.15277777777777776</v>
+        <v>0.14930555555555555</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -2037,21 +2061,21 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="B71" s="1">
-        <v>0.15625</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B72" s="1">
-        <v>0.15972222222222224</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2059,21 +2083,21 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B73" s="1">
-        <v>0.15972222222222224</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B74" s="1">
-        <v>0.16319444444444445</v>
+        <v>0.15625</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
@@ -2081,10 +2105,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B75" s="1">
-        <v>0.16666666666666666</v>
+        <v>0.15972222222222224</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2092,54 +2116,54 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B76" s="1">
-        <v>0.17013888888888887</v>
+        <v>0.15972222222222224</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B77" s="1">
-        <v>0.17361111111111113</v>
+        <v>0.15972222222222224</v>
       </c>
       <c r="C77" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B78" s="1">
-        <v>0.18402777777777779</v>
+        <v>0.16319444444444445</v>
       </c>
       <c r="C78" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B79" s="1">
-        <v>0.1875</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C79" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="B80" s="1">
-        <v>0.19444444444444445</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
@@ -2147,10 +2171,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B81" s="1">
-        <v>0.19791666666666666</v>
+        <v>0.16944444444444443</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
@@ -2158,10 +2182,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B82" s="1">
-        <v>0.20138888888888887</v>
+        <v>0.17013888888888887</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
@@ -2169,167 +2193,167 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B83" s="1">
-        <v>0.20138888888888887</v>
+        <v>0.17361111111111113</v>
       </c>
       <c r="C83" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B84" s="1">
-        <v>0.20138888888888887</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="C84" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B85" s="1">
-        <v>0.20833333333333334</v>
+        <v>0.18402777777777779</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B86" s="1">
-        <v>0.20833333333333334</v>
+        <v>0.1875</v>
       </c>
       <c r="C86" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B87" s="1">
-        <v>0.20833333333333334</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="C87" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B88" s="1">
-        <v>0.21527777777777779</v>
+        <v>0.19791666666666666</v>
       </c>
       <c r="C88" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B89" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.20138888888888887</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B90" s="1">
-        <v>0.22916666666666666</v>
+        <v>0.20138888888888887</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B91" s="1">
-        <v>0.22916666666666666</v>
+        <v>0.20138888888888887</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B92" s="1">
-        <v>0.23611111111111113</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B93" s="1">
-        <v>0.24305555555555555</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B94" s="1">
-        <v>0.25694444444444448</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B95" s="1">
-        <v>0.25694444444444448</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="C95" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B96" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="C96" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B97" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="C97" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
@@ -2337,51 +2361,128 @@
         <v>75</v>
       </c>
       <c r="B98" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="C98" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B99" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.23611111111111113</v>
       </c>
       <c r="C99" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B100" s="1">
-        <v>0.27430555555555552</v>
+        <v>0.24305555555555555</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B101" s="1">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>70</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>68</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>79</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="C107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>98</v>
+      </c>
+      <c r="B108" s="1">
         <v>0.28125</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C108" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:C101">
+  <sortState ref="A1:C108">
     <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>